--- a/Capa0.25_oil_droplet_smal_a0.xlsx
+++ b/Capa0.25_oil_droplet_smal_a0.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\Simels_daten\Epfl\sem_13_2022_Master_theis_USA\Master_thesis\Capacitance_measuring\C_mes_AD7746\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B34A2401-3C77-445D-9EE7-3ACCA3DA7647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE41CB3C-F49E-4C39-A62D-8DD043EEC5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="28680" yWindow="-5700" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa0.25_oil_droplet_smal_a0" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,7 +558,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3917,15 +3917,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4249,11 +4249,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
